--- a/data/trans_orig/IP18A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Habitat-trans_orig.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4962E30D-7E2E-4F87-A734-1044735C4FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A1743F-C52D-49BD-8471-A8208BB621E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B59058D4-F524-466D-BBE7-558D63429A45}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8C941003-875A-4B42-A479-4A998B52C7D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
     <sheet name="2015" sheetId="4" r:id="rId3"/>
-    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="319">
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -68,12 +67,126 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>87,84%</t>
   </si>
   <si>
@@ -101,9 +214,6 @@
     <t>91,19%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>12,16%</t>
   </si>
   <si>
@@ -131,64 +241,61 @@
     <t>14,28%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -209,9 +316,6 @@
     <t>85,89%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
     <t>91,09%</t>
   </si>
   <si>
@@ -233,9 +337,6 @@
     <t>9,75%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
     <t>14,11%</t>
   </si>
   <si>
@@ -248,108 +349,6 @@
     <t>11,48%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
     <t>87,24%</t>
   </si>
   <si>
@@ -389,6 +388,108 @@
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
   </si>
   <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
     <t>86,77%</t>
   </si>
   <si>
@@ -437,58 +538,58 @@
     <t>15,44%</t>
   </si>
   <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>86,68%</t>
@@ -539,108 +640,6 @@
     <t>16,81%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
     <t>87,67%</t>
   </si>
   <si>
@@ -698,6 +697,114 @@
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2015 (Tasa respuesta: 90,45%)</t>
   </si>
   <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
     <t>87,54%</t>
   </si>
   <si>
@@ -746,58 +853,46 @@
     <t>11,22%</t>
   </si>
   <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>90,15%</t>
@@ -848,102 +943,6 @@
     <t>12,91%</t>
   </si>
   <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
     <t>89,81%</t>
   </si>
   <si>
@@ -996,327 +995,6 @@
   </si>
   <si>
     <t>11,34%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A09B092-6988-4E37-8F40-6F6D43E9D58C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719437A3-ADD0-49C0-8422-A5B2652564B7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1826,10 +1504,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>158034</v>
+        <v>20753</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1841,10 +1519,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>147926</v>
+        <v>18575</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1853,73 +1531,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>51</v>
+      </c>
+      <c r="N4" s="7">
+        <v>39328</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>478</v>
-      </c>
-      <c r="N4" s="7">
-        <v>305960</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1433</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7">
-        <v>21882</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>929</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17427</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2362</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>61</v>
-      </c>
-      <c r="N5" s="7">
-        <v>39309</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,54 +1606,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>179916</v>
+        <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>165353</v>
+        <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>345269</v>
+        <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1987,13 +1665,13 @@
         <v>90748</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>126</v>
@@ -2002,13 +1680,13 @@
         <v>85023</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>262</v>
@@ -2017,19 +1695,19 @@
         <v>175770</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>25</v>
@@ -2038,13 +1716,13 @@
         <v>16063</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -2053,13 +1731,13 @@
         <v>11018</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2068,13 +1746,13 @@
         <v>27082</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +1767,13 @@
         <v>106811</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>143</v>
@@ -2104,13 +1782,13 @@
         <v>96041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>304</v>
@@ -2119,117 +1797,117 @@
         <v>202852</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D10" s="7">
-        <v>166762</v>
+        <v>158034</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>237</v>
+      </c>
+      <c r="I10" s="7">
+        <v>147926</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>228</v>
-      </c>
-      <c r="I10" s="7">
-        <v>173779</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>478</v>
+      </c>
+      <c r="N10" s="7">
+        <v>305960</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>475</v>
-      </c>
-      <c r="N10" s="7">
-        <v>340540</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>14544</v>
+        <v>21882</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>28</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17427</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>18764</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>61</v>
+      </c>
+      <c r="N11" s="7">
+        <v>39309</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>45</v>
-      </c>
-      <c r="N11" s="7">
-        <v>33308</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,144 +1916,144 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D12" s="7">
-        <v>181306</v>
+        <v>179916</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="I12" s="7">
-        <v>192543</v>
+        <v>165353</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="N12" s="7">
-        <v>373848</v>
+        <v>345269</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D13" s="7">
-        <v>20753</v>
+        <v>121451</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>193</v>
+      </c>
+      <c r="I13" s="7">
+        <v>116560</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18575</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>380</v>
+      </c>
+      <c r="N13" s="7">
+        <v>238011</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>51</v>
-      </c>
-      <c r="N13" s="7">
-        <v>39328</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
       <c r="D14" s="7">
-        <v>1433</v>
+        <v>12345</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>14</v>
+      </c>
+      <c r="I14" s="7">
+        <v>8017</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>929</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>2362</v>
+        <v>20362</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2393,49 +2071,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="D15" s="7">
-        <v>22186</v>
+        <v>133796</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I15" s="7">
-        <v>19504</v>
+        <v>124577</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="N15" s="7">
-        <v>41690</v>
+        <v>258373</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,10 +2124,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D16" s="7">
-        <v>121451</v>
+        <v>166762</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -2461,25 +2139,25 @@
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="I16" s="7">
-        <v>116560</v>
+        <v>173779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="N16" s="7">
-        <v>238011</v>
+        <v>340540</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -2494,13 +2172,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>12345</v>
+        <v>14544</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -2512,25 +2190,25 @@
         <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>8017</v>
+        <v>18764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N17" s="7">
-        <v>20362</v>
+        <v>33308</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -2548,49 +2226,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>133796</v>
+        <v>181306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>124577</v>
+        <v>192543</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N18" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,7 +2285,7 @@
         <v>557746</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>103</v>
@@ -2640,16 +2318,16 @@
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>101</v>
@@ -2658,7 +2336,7 @@
         <v>66268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>109</v>
@@ -2691,10 +2369,10 @@
         <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2387,13 @@
         <v>624014</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>892</v>
@@ -2724,13 +2402,13 @@
         <v>598018</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1831</v>
@@ -2739,13 +2417,13 @@
         <v>1222032</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2766,7 +2444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0649B0FE-1A61-4751-BD16-5884E56C3E3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8059C5D3-F17F-4497-B063-A05730BED530}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,25 +2562,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>178043</v>
+        <v>22317</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>167731</v>
+        <v>16819</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>118</v>
@@ -2914,10 +2592,10 @@
         <v>120</v>
       </c>
       <c r="M4" s="7">
-        <v>517</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>345773</v>
+        <v>39136</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>121</v>
@@ -2932,28 +2610,28 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>27152</v>
+        <v>2137</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="H5" s="7">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>22570</v>
+        <v>4684</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>126</v>
@@ -2965,10 +2643,10 @@
         <v>128</v>
       </c>
       <c r="M5" s="7">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>49723</v>
+        <v>6821</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>129</v>
@@ -2986,54 +2664,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>296</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>205195</v>
+        <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>190301</v>
+        <v>21503</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>590</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>395496</v>
+        <v>45957</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3087,7 +2765,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>24</v>
@@ -3147,13 +2825,13 @@
         <v>121707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>151</v>
@@ -3162,13 +2840,13 @@
         <v>108331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>323</v>
@@ -3177,42 +2855,42 @@
         <v>230038</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="D10" s="7">
-        <v>176378</v>
+        <v>178043</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="H10" s="7">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="I10" s="7">
-        <v>173507</v>
+        <v>167731</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>152</v>
@@ -3224,10 +2902,10 @@
         <v>154</v>
       </c>
       <c r="M10" s="7">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="N10" s="7">
-        <v>349885</v>
+        <v>345773</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>155</v>
@@ -3242,28 +2920,28 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>27095</v>
+        <v>27152</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>28771</v>
+        <v>22570</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>160</v>
@@ -3275,10 +2953,10 @@
         <v>162</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N11" s="7">
-        <v>55866</v>
+        <v>49723</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>163</v>
@@ -3296,63 +2974,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="D12" s="7">
-        <v>203473</v>
+        <v>205195</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="I12" s="7">
-        <v>202278</v>
+        <v>190301</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="N12" s="7">
-        <v>405751</v>
+        <v>395496</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="D13" s="7">
-        <v>22317</v>
+        <v>140820</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>166</v>
@@ -3361,88 +3039,88 @@
         <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="I13" s="7">
-        <v>16819</v>
+        <v>126034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="N13" s="7">
-        <v>39136</v>
+        <v>266854</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>2137</v>
+        <v>14775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>4684</v>
+        <v>16029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N14" s="7">
-        <v>6821</v>
+        <v>30804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,49 +3129,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>24454</v>
+        <v>155595</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I15" s="7">
-        <v>21503</v>
+        <v>142063</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>459</v>
       </c>
       <c r="N15" s="7">
-        <v>45957</v>
+        <v>297658</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,76 +3182,76 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D16" s="7">
-        <v>140820</v>
+        <v>176378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="I16" s="7">
-        <v>126034</v>
+        <v>173507</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="N16" s="7">
-        <v>266854</v>
+        <v>349885</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>14775</v>
+        <v>27095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>193</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>16029</v>
+        <v>28771</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>194</v>
@@ -3585,10 +3263,10 @@
         <v>196</v>
       </c>
       <c r="M17" s="7">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="N17" s="7">
-        <v>30804</v>
+        <v>55866</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>197</v>
@@ -3606,49 +3284,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="D18" s="7">
-        <v>155595</v>
+        <v>203473</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="I18" s="7">
-        <v>142063</v>
+        <v>202278</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>459</v>
+        <v>541</v>
       </c>
       <c r="N18" s="7">
-        <v>297658</v>
+        <v>405751</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,7 +3385,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>125</v>
@@ -3767,13 +3445,13 @@
         <v>710425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>956</v>
@@ -3782,13 +3460,13 @@
         <v>664476</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1965</v>
@@ -3797,13 +3475,13 @@
         <v>1374900</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3824,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA53274-3705-43F3-B0A0-0B2F0330B251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFB76F8-6FC4-416D-A0DE-C56310B975F8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,100 +3620,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>190943</v>
+        <v>19985</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>175709</v>
+        <v>16654</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
-        <v>565</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>366652</v>
+        <v>36640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>17787</v>
+        <v>5589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>17609</v>
+        <v>4193</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>35396</v>
+        <v>9781</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,54 +3722,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>208730</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>193318</v>
+        <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>620</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>402048</v>
+        <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4103,13 +3781,13 @@
         <v>95611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -4118,13 +3796,13 @@
         <v>93612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>266</v>
@@ -4133,19 +3811,19 @@
         <v>189223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>19</v>
@@ -4154,13 +3832,13 @@
         <v>14154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4169,13 +3847,13 @@
         <v>9010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -4184,13 +3862,13 @@
         <v>23164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +3883,13 @@
         <v>109765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -4220,13 +3898,13 @@
         <v>102622</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>298</v>
@@ -4235,117 +3913,117 @@
         <v>212387</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="D10" s="7">
-        <v>164381</v>
+        <v>190943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="I10" s="7">
-        <v>168002</v>
+        <v>175709</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
-        <v>457</v>
+        <v>565</v>
       </c>
       <c r="N10" s="7">
-        <v>332384</v>
+        <v>366652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>17958</v>
+        <v>17787</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>20203</v>
+        <v>17609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>38160</v>
+        <v>35396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,153 +4032,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="D12" s="7">
-        <v>182339</v>
+        <v>208730</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="I12" s="7">
-        <v>188205</v>
+        <v>193318</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>512</v>
+        <v>620</v>
       </c>
       <c r="N12" s="7">
-        <v>370544</v>
+        <v>402048</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D13" s="7">
-        <v>19985</v>
+        <v>130548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="I13" s="7">
-        <v>16654</v>
+        <v>125790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>403</v>
       </c>
       <c r="N13" s="7">
-        <v>36640</v>
+        <v>256338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>5589</v>
+        <v>12725</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10210</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4193</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>38</v>
+      </c>
+      <c r="N14" s="7">
+        <v>22935</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9781</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +4187,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>143273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="I15" s="7">
-        <v>20847</v>
+        <v>136000</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>441</v>
       </c>
       <c r="N15" s="7">
-        <v>46421</v>
+        <v>279273</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,97 +4240,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="D16" s="7">
-        <v>130548</v>
+        <v>164381</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="7">
+        <v>227</v>
+      </c>
+      <c r="I16" s="7">
+        <v>168002</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H16" s="7">
-        <v>208</v>
-      </c>
-      <c r="I16" s="7">
-        <v>125790</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>457</v>
+      </c>
+      <c r="N16" s="7">
+        <v>332384</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="M16" s="7">
-        <v>403</v>
-      </c>
-      <c r="N16" s="7">
-        <v>256338</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>12725</v>
+        <v>17958</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="7">
+        <v>29</v>
+      </c>
+      <c r="I17" s="7">
+        <v>20203</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10210</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>55</v>
+      </c>
+      <c r="N17" s="7">
+        <v>38160</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="M17" s="7">
-        <v>38</v>
-      </c>
-      <c r="N17" s="7">
-        <v>22935</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>300</v>
@@ -4664,49 +4342,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D18" s="7">
-        <v>143273</v>
+        <v>182339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="I18" s="7">
-        <v>136000</v>
+        <v>188205</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="N18" s="7">
-        <v>279273</v>
+        <v>370544</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,7 +4443,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>98</v>
@@ -4825,13 +4503,13 @@
         <v>669680</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>966</v>
@@ -4840,13 +4518,13 @@
         <v>640992</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1923</v>
@@ -4855,1071 +4533,13 @@
         <v>1310673</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13818505-11EC-41FD-A48A-67367B2D222D}">
-  <dimension ref="A1:Q21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="17" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7">
-        <v>34048</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H4" s="7">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7">
-        <v>19303</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M4" s="7">
-        <v>81</v>
-      </c>
-      <c r="N4" s="7">
-        <v>53352</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7">
-        <v>14570</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H5" s="7">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9792</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M5" s="7">
-        <v>39</v>
-      </c>
-      <c r="N5" s="7">
-        <v>24361</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>74</v>
-      </c>
-      <c r="D6" s="7">
-        <v>48618</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29095</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>120</v>
-      </c>
-      <c r="N6" s="7">
-        <v>77713</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7">
-        <v>8958</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8347</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="M7" s="7">
-        <v>30</v>
-      </c>
-      <c r="N7" s="7">
-        <v>17305</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6927</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3990</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="M8" s="7">
-        <v>18</v>
-      </c>
-      <c r="N8" s="7">
-        <v>10916</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7">
-        <v>15885</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>21</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12337</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="7">
-        <v>48</v>
-      </c>
-      <c r="N9" s="7">
-        <v>28221</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7">
-        <v>15878</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H10" s="7">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16976</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="M10" s="7">
-        <v>50</v>
-      </c>
-      <c r="N10" s="7">
-        <v>32854</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11523</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H11" s="7">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11631</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="M11" s="7">
-        <v>33</v>
-      </c>
-      <c r="N11" s="7">
-        <v>23154</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7">
-        <v>27401</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>28607</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>83</v>
-      </c>
-      <c r="N12" s="7">
-        <v>56008</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1938</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1127</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3065</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2732</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3436</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6168</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4670</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7">
-        <v>4563</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
-        <v>13</v>
-      </c>
-      <c r="N15" s="7">
-        <v>9233</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7">
-        <v>12089</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H16" s="7">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9376</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="M16" s="7">
-        <v>32</v>
-      </c>
-      <c r="N16" s="7">
-        <v>21465</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7">
-        <v>17763</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H17" s="7">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15945</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="M17" s="7">
-        <v>45</v>
-      </c>
-      <c r="N17" s="7">
-        <v>33708</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>40</v>
-      </c>
-      <c r="D18" s="7">
-        <v>29852</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>37</v>
-      </c>
-      <c r="I18" s="7">
-        <v>25321</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="7">
-        <v>77</v>
-      </c>
-      <c r="N18" s="7">
-        <v>55173</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>111</v>
-      </c>
-      <c r="D19" s="7">
-        <v>72911</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H19" s="7">
-        <v>87</v>
-      </c>
-      <c r="I19" s="7">
-        <v>55130</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="M19" s="7">
-        <v>198</v>
-      </c>
-      <c r="N19" s="7">
-        <v>128041</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>77</v>
-      </c>
-      <c r="D20" s="7">
-        <v>53514</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H20" s="7">
-        <v>66</v>
-      </c>
-      <c r="I20" s="7">
-        <v>44793</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M20" s="7">
-        <v>143</v>
-      </c>
-      <c r="N20" s="7">
-        <v>98307</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>188</v>
-      </c>
-      <c r="D21" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>153</v>
-      </c>
-      <c r="I21" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>341</v>
-      </c>
-      <c r="N21" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A1743F-C52D-49BD-8471-A8208BB621E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCB1F40-28DB-4623-A75D-9E7D2BB5188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8C941003-875A-4B42-A479-4A998B52C7D1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B57D71A7-442D-4637-9688-D0891D567AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="326">
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -70,13 +70,40 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>76,57%</t>
+    <t>79,22%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,43 +112,16 @@
     <t>95,24%</t>
   </si>
   <si>
-    <t>74,58%</t>
+    <t>77,17%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -130,124 +130,151 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
     <t>84,96%</t>
   </si>
   <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
     <t>87,84%</t>
   </si>
   <si>
-    <t>83,06%</t>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>85,84%</t>
+    <t>86,35%</t>
   </si>
   <si>
     <t>94,08%</t>
@@ -256,745 +283,739 @@
     <t>93,56%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
     <t>89,38%</t>
   </si>
   <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
   </si>
   <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>72,77%</t>
+    <t>70,35%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>86,5%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>88,1%</t>
   </si>
   <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>86,23%</t>
   </si>
   <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>87,67%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>85,42%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2015 (Tasa respuesta: 90,45%)</t>
   </si>
   <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
     <t>78,15%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>78,93%</t>
   </si>
   <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>87,11%</t>
   </si>
   <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>95,29%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>93,28%</t>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1026,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1101,39 +1122,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1185,7 +1206,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1296,13 +1317,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1311,6 +1325,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1375,19 +1396,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719437A3-ADD0-49C0-8422-A5B2652564B7}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D58F8BB-46B8-4AEA-9F47-0AD020759339}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1504,10 +1545,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>20753</v>
+        <v>1433</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1519,25 +1560,25 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>18575</v>
+        <v>929</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>39328</v>
+        <v>2362</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1555,10 +1596,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>1433</v>
+        <v>20753</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1570,25 +1611,25 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>929</v>
+        <v>18575</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>2362</v>
+        <v>39328</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1659,10 +1700,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>90748</v>
+        <v>16063</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1715,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>85023</v>
+        <v>11018</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1689,10 +1730,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>175770</v>
+        <v>27082</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1710,10 +1751,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>16063</v>
+        <v>90748</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1725,10 +1766,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="I8" s="7">
-        <v>11018</v>
+        <v>85023</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1740,10 +1781,10 @@
         <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="N8" s="7">
-        <v>27082</v>
+        <v>175770</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1814,10 +1855,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>158034</v>
+        <v>21882</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1829,10 +1870,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>147926</v>
+        <v>17427</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1844,10 +1885,10 @@
         <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>478</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>305960</v>
+        <v>39309</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1865,10 +1906,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>21882</v>
+        <v>158034</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1880,10 +1921,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="I11" s="7">
-        <v>17427</v>
+        <v>147926</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1895,10 +1936,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>478</v>
       </c>
       <c r="N11" s="7">
-        <v>39309</v>
+        <v>305960</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1969,10 +2010,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>121451</v>
+        <v>12345</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1984,10 +2025,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>116560</v>
+        <v>8017</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1999,10 +2040,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>380</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>238011</v>
+        <v>20362</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -2020,10 +2061,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>12345</v>
+        <v>121451</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -2035,10 +2076,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="I14" s="7">
-        <v>8017</v>
+        <v>116560</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -2050,10 +2091,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>34</v>
+        <v>380</v>
       </c>
       <c r="N14" s="7">
-        <v>20362</v>
+        <v>238011</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2124,10 +2165,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>166762</v>
+        <v>14544</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -2139,10 +2180,10 @@
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>173779</v>
+        <v>18764</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -2151,22 +2192,22 @@
         <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>475</v>
+        <v>45</v>
       </c>
       <c r="N16" s="7">
-        <v>340540</v>
+        <v>33308</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,49 +2216,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="D17" s="7">
-        <v>14544</v>
+        <v>166762</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="I17" s="7">
-        <v>18764</v>
+        <v>173779</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>45</v>
+        <v>475</v>
       </c>
       <c r="N17" s="7">
-        <v>33308</v>
+        <v>340540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,49 +2320,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>838</v>
+        <v>101</v>
       </c>
       <c r="D19" s="7">
-        <v>557746</v>
+        <v>66268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>808</v>
+        <v>84</v>
       </c>
       <c r="I19" s="7">
-        <v>541864</v>
+        <v>56154</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>1646</v>
+        <v>185</v>
       </c>
       <c r="N19" s="7">
-        <v>1099610</v>
+        <v>122422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,49 +2371,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>101</v>
+        <v>838</v>
       </c>
       <c r="D20" s="7">
-        <v>66268</v>
+        <v>557746</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>84</v>
+        <v>808</v>
       </c>
       <c r="I20" s="7">
-        <v>56154</v>
+        <v>541864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>185</v>
+        <v>1646</v>
       </c>
       <c r="N20" s="7">
-        <v>122422</v>
+        <v>1099610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,6 +2465,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2444,8 +2490,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8059C5D3-F17F-4497-B063-A05730BED530}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9BE740-6D41-4DDB-AFB3-DE6B23AD7016}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2461,7 +2507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2562,49 +2608,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>22317</v>
+        <v>2137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>16819</v>
+        <v>4684</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>39136</v>
+        <v>6821</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,49 +2659,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>2137</v>
+        <v>22317</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>4684</v>
+        <v>16819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N5" s="7">
-        <v>6821</v>
+        <v>39136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,49 +2763,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>105276</v>
+        <v>16431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>95443</v>
+        <v>12888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>200719</v>
+        <v>29319</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,49 +2814,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7">
-        <v>16431</v>
+        <v>105276</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I8" s="7">
-        <v>12888</v>
+        <v>95443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="N8" s="7">
-        <v>29319</v>
+        <v>200719</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,49 +2918,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>178043</v>
+        <v>27152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>167731</v>
+        <v>22570</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
-        <v>517</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>345773</v>
+        <v>49723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,49 +2969,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="D11" s="7">
-        <v>27152</v>
+        <v>178043</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="I11" s="7">
-        <v>22570</v>
+        <v>167731</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
-        <v>73</v>
+        <v>517</v>
       </c>
       <c r="N11" s="7">
-        <v>49723</v>
+        <v>345773</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,49 +3073,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>140820</v>
+        <v>14775</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>126034</v>
+        <v>16029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
-        <v>413</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>266854</v>
+        <v>30804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,49 +3124,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="D14" s="7">
-        <v>14775</v>
+        <v>140820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>16029</v>
+        <v>126034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
-        <v>46</v>
+        <v>413</v>
       </c>
       <c r="N14" s="7">
-        <v>30804</v>
+        <v>266854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,49 +3228,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>176378</v>
+        <v>27095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>173507</v>
+        <v>28771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="N16" s="7">
-        <v>349885</v>
+        <v>55866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,49 +3279,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="D17" s="7">
-        <v>27095</v>
+        <v>176378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="I17" s="7">
-        <v>28771</v>
+        <v>173507</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="N17" s="7">
-        <v>55866</v>
+        <v>349885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,49 +3383,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>884</v>
+        <v>125</v>
       </c>
       <c r="D19" s="7">
-        <v>622834</v>
+        <v>87591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
-        <v>836</v>
+        <v>120</v>
       </c>
       <c r="I19" s="7">
-        <v>579534</v>
+        <v>84942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
-        <v>1720</v>
+        <v>245</v>
       </c>
       <c r="N19" s="7">
-        <v>1202367</v>
+        <v>172533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,49 +3434,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>125</v>
+        <v>884</v>
       </c>
       <c r="D20" s="7">
-        <v>87591</v>
+        <v>622833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
-        <v>120</v>
+        <v>836</v>
       </c>
       <c r="I20" s="7">
-        <v>84942</v>
+        <v>579534</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
-        <v>245</v>
+        <v>1720</v>
       </c>
       <c r="N20" s="7">
-        <v>172533</v>
+        <v>1202368</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,7 +3488,7 @@
         <v>1009</v>
       </c>
       <c r="D21" s="7">
-        <v>710425</v>
+        <v>710424</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -3472,7 +3518,7 @@
         <v>1965</v>
       </c>
       <c r="N21" s="7">
-        <v>1374900</v>
+        <v>1374901</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3482,6 +3528,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3502,8 +3553,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFB76F8-6FC4-416D-A0DE-C56310B975F8}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE27DBB-D527-40DE-858E-28B542AE660D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3519,7 +3570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3620,49 +3671,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>19985</v>
+        <v>5589</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>16654</v>
+        <v>4193</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>36640</v>
+        <v>9781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,49 +3722,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>5589</v>
+        <v>19985</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>4193</v>
+        <v>16654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>9781</v>
+        <v>36640</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,49 +3826,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>95611</v>
+        <v>14154</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>93612</v>
+        <v>9010</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>189223</v>
+        <v>23164</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,49 +3877,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="D8" s="7">
-        <v>14154</v>
+        <v>95611</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="I8" s="7">
-        <v>9010</v>
+        <v>93612</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="N8" s="7">
-        <v>23164</v>
+        <v>189223</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,49 +3981,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>190943</v>
+        <v>17787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>175709</v>
+        <v>17609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
-        <v>565</v>
+        <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>366652</v>
+        <v>35396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,49 +4032,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="D11" s="7">
-        <v>17787</v>
+        <v>190943</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="I11" s="7">
-        <v>17609</v>
+        <v>175709</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>565</v>
       </c>
       <c r="N11" s="7">
-        <v>35396</v>
+        <v>366652</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,49 +4136,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>130548</v>
+        <v>12725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>125790</v>
+        <v>10210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>256338</v>
+        <v>22935</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,49 +4187,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="D14" s="7">
-        <v>12725</v>
+        <v>130548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="I14" s="7">
-        <v>10210</v>
+        <v>125790</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>22935</v>
+        <v>256338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,49 +4291,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>164381</v>
+        <v>17958</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>168002</v>
+        <v>20203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
-        <v>457</v>
+        <v>55</v>
       </c>
       <c r="N16" s="7">
-        <v>332384</v>
+        <v>38160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,49 +4342,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="D17" s="7">
-        <v>17958</v>
+        <v>164381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="I17" s="7">
-        <v>20203</v>
+        <v>168002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
-        <v>55</v>
+        <v>457</v>
       </c>
       <c r="N17" s="7">
-        <v>38160</v>
+        <v>332384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,49 +4446,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>859</v>
+        <v>98</v>
       </c>
       <c r="D19" s="7">
-        <v>601467</v>
+        <v>68213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
-        <v>871</v>
+        <v>95</v>
       </c>
       <c r="I19" s="7">
-        <v>579768</v>
+        <v>61224</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
-        <v>1730</v>
+        <v>193</v>
       </c>
       <c r="N19" s="7">
-        <v>1181236</v>
+        <v>129437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,49 +4497,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>98</v>
+        <v>859</v>
       </c>
       <c r="D20" s="7">
-        <v>68213</v>
+        <v>601467</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
-        <v>95</v>
+        <v>871</v>
       </c>
       <c r="I20" s="7">
-        <v>61224</v>
+        <v>579769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
-        <v>193</v>
+        <v>1730</v>
       </c>
       <c r="N20" s="7">
-        <v>129437</v>
+        <v>1181236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4566,7 @@
         <v>966</v>
       </c>
       <c r="I21" s="7">
-        <v>640992</v>
+        <v>640993</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -4540,6 +4591,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCB1F40-28DB-4623-A75D-9E7D2BB5188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ACCA3EC-9823-4D5F-9834-9932FABF7462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B57D71A7-442D-4637-9688-D0891D567AB9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECF1F796-2147-423F-A0F4-7719A858CEC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="332">
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,22 +79,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,78%</t>
+    <t>20,48%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>22,83%</t>
+    <t>23,73%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>79,22%</t>
+    <t>79,52%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -112,865 +112,883 @@
     <t>95,24%</t>
   </si>
   <si>
-    <t>77,17%</t>
+    <t>76,27%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>84,96%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>8,79%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2016 (Tasa respuesta: 90,45%)</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2015 (Tasa respuesta: 90,45%)</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>95,29%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>94,01%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>9,55%</t>
@@ -979,31 +997,31 @@
     <t>7,96%</t>
   </si>
   <si>
-    <t>11,65%</t>
+    <t>11,59%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>88,35%</t>
+    <t>88,41%</t>
   </si>
   <si>
     <t>92,04%</t>
@@ -1012,10 +1030,10 @@
     <t>90,12%</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D58F8BB-46B8-4AEA-9F47-0AD020759339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8F3B28-D1C0-4E3F-B7A2-53D53EA3060E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2362,7 +2380,7 @@
         <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2395,13 @@
         <v>557746</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>808</v>
@@ -2392,13 +2410,13 @@
         <v>541864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1646</v>
@@ -2407,13 +2425,13 @@
         <v>1099610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2487,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9BE740-6D41-4DDB-AFB3-DE6B23AD7016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047AAF50-2B0B-44B3-9421-746467527AC8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2507,7 +2525,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2614,13 +2632,13 @@
         <v>2137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2629,13 +2647,13 @@
         <v>4684</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2644,13 +2662,13 @@
         <v>6821</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,10 +2683,10 @@
         <v>22317</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2680,13 +2698,13 @@
         <v>16819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -2695,13 +2713,13 @@
         <v>39136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2787,13 @@
         <v>16431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2784,13 +2802,13 @@
         <v>12888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -2799,13 +2817,13 @@
         <v>29319</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2838,13 @@
         <v>105276</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -2835,13 +2853,13 @@
         <v>95443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>281</v>
@@ -2850,13 +2868,13 @@
         <v>200719</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2942,13 @@
         <v>27152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2939,13 +2957,13 @@
         <v>22570</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -2954,13 +2972,13 @@
         <v>49723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2993,13 @@
         <v>178043</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
@@ -2990,13 +3008,13 @@
         <v>167731</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>517</v>
@@ -3005,13 +3023,13 @@
         <v>345773</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3097,13 @@
         <v>14775</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3094,13 +3112,13 @@
         <v>16029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -3109,13 +3127,13 @@
         <v>30804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3148,13 @@
         <v>140820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -3145,13 +3163,13 @@
         <v>126034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -3160,13 +3178,13 @@
         <v>266854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3252,13 @@
         <v>27095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -3249,13 +3267,13 @@
         <v>28771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3264,13 +3282,13 @@
         <v>55866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3303,13 @@
         <v>176378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -3300,13 +3318,13 @@
         <v>173507</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
@@ -3315,13 +3333,13 @@
         <v>349885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3407,13 @@
         <v>87591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
@@ -3404,13 +3422,13 @@
         <v>84942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>245</v>
@@ -3419,13 +3437,13 @@
         <v>172533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3458,13 @@
         <v>622833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>836</v>
@@ -3455,28 +3473,28 @@
         <v>579534</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1720</v>
       </c>
       <c r="N20" s="7">
-        <v>1202368</v>
+        <v>1202367</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,7 +3536,7 @@
         <v>1965</v>
       </c>
       <c r="N21" s="7">
-        <v>1374901</v>
+        <v>1374900</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3532,7 +3550,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE27DBB-D527-40DE-858E-28B542AE660D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E84326B-8F5E-4849-92D6-307EE6CA94FA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3570,7 +3588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3677,13 +3695,13 @@
         <v>5589</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3692,13 +3710,13 @@
         <v>4193</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3707,13 +3725,13 @@
         <v>9781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3746,13 @@
         <v>19985</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3743,13 +3761,13 @@
         <v>16654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3758,13 +3776,13 @@
         <v>36640</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3850,13 @@
         <v>14154</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3847,13 +3865,13 @@
         <v>9010</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -3862,13 +3880,13 @@
         <v>23164</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3901,13 @@
         <v>95611</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -3898,13 +3916,13 @@
         <v>93612</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -3913,13 +3931,13 @@
         <v>189223</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +4005,13 @@
         <v>17787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4002,13 +4020,13 @@
         <v>17609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4017,13 +4035,13 @@
         <v>35396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4056,13 @@
         <v>190943</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -4053,13 +4071,13 @@
         <v>175709</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>565</v>
@@ -4068,13 +4086,13 @@
         <v>366652</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4160,13 @@
         <v>12725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4157,13 +4175,13 @@
         <v>10210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4172,13 +4190,13 @@
         <v>22935</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4211,13 @@
         <v>130548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>208</v>
@@ -4208,13 +4226,13 @@
         <v>125790</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -4223,13 +4241,13 @@
         <v>256338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4315,13 @@
         <v>17958</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4312,13 +4330,13 @@
         <v>20203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -4327,13 +4345,13 @@
         <v>38160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4366,13 @@
         <v>164381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -4363,13 +4381,13 @@
         <v>168002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>457</v>
@@ -4378,13 +4396,13 @@
         <v>332384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4470,13 @@
         <v>68213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -4467,13 +4485,13 @@
         <v>61224</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>193</v>
@@ -4482,13 +4500,13 @@
         <v>129437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,28 +4521,28 @@
         <v>601467</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>871</v>
       </c>
       <c r="I20" s="7">
-        <v>579769</v>
+        <v>579768</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>1730</v>
@@ -4533,13 +4551,13 @@
         <v>1181236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +4584,7 @@
         <v>966</v>
       </c>
       <c r="I21" s="7">
-        <v>640993</v>
+        <v>640992</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -4595,7 +4613,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ACCA3EC-9823-4D5F-9834-9932FABF7462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FB2927-0B56-4025-AD65-2618DD26D559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECF1F796-2147-423F-A0F4-7719A858CEC3}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{D4813758-5AA8-4493-87D5-E11E72920A99}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="267">
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,199 +67,148 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>87,84%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>7,88%</t>
@@ -268,31 +217,31 @@
     <t>5,53%</t>
   </si>
   <si>
-    <t>10,37%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>89,63%</t>
+    <t>89,38%</t>
   </si>
   <si>
     <t>94,47%</t>
@@ -301,739 +250,595 @@
     <t>Capitales</t>
   </si>
   <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>5,29%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>94,71%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2016 (Tasa respuesta: 90,45%)</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>86,5%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2016 (Tasa respuesta: 90,45%)</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>92,36%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>88,66%</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1250,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8F3B28-D1C0-4E3F-B7A2-53D53EA3060E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDBC0EE-19DE-4E0F-B853-93FA1E05F120}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1563,10 +1368,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>1433</v>
+        <v>11947</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1578,85 +1383,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>929</v>
+        <v>17496</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>2362</v>
+        <v>29443</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>150</v>
+      </c>
+      <c r="D5" s="7">
+        <v>103598</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>163</v>
+      </c>
+      <c r="I5" s="7">
+        <v>111501</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>313</v>
+      </c>
+      <c r="N5" s="7">
+        <v>215099</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7">
-        <v>20753</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18575</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7">
-        <v>51</v>
-      </c>
-      <c r="N5" s="7">
-        <v>39328</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,153 +1470,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7">
-        <v>22186</v>
+        <v>115545</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="I6" s="7">
-        <v>19504</v>
+        <v>128997</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="N6" s="7">
-        <v>41690</v>
+        <v>244542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>16063</v>
+        <v>17427</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>11018</v>
+        <v>21882</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="N7" s="7">
-        <v>27082</v>
+        <v>39309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="D8" s="7">
-        <v>90748</v>
+        <v>147926</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="I8" s="7">
-        <v>85023</v>
+        <v>158034</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>262</v>
+        <v>478</v>
       </c>
       <c r="N8" s="7">
-        <v>175770</v>
+        <v>305960</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,153 +1625,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="D9" s="7">
-        <v>106811</v>
+        <v>165353</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="I9" s="7">
-        <v>96041</v>
+        <v>179916</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>304</v>
+        <v>539</v>
       </c>
       <c r="N9" s="7">
-        <v>202852</v>
+        <v>345269</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>21882</v>
+        <v>8017</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>17427</v>
+        <v>12345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>39309</v>
+        <v>20362</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>158034</v>
+        <v>116560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="I11" s="7">
-        <v>147926</v>
+        <v>121451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>478</v>
+        <v>380</v>
       </c>
       <c r="N11" s="7">
-        <v>305960</v>
+        <v>238011</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,93 +1780,93 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>179916</v>
+        <v>124577</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="I12" s="7">
-        <v>165353</v>
+        <v>133796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>539</v>
+        <v>414</v>
       </c>
       <c r="N12" s="7">
-        <v>345269</v>
+        <v>258373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>12345</v>
+        <v>18764</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>8017</v>
+        <v>14544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>20362</v>
+        <v>33308</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -2076,13 +1881,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7">
-        <v>121451</v>
+        <v>173779</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -2091,37 +1896,37 @@
         <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="7">
+        <v>247</v>
+      </c>
+      <c r="I14" s="7">
+        <v>166762</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>193</v>
-      </c>
-      <c r="I14" s="7">
-        <v>116560</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>475</v>
+      </c>
+      <c r="N14" s="7">
+        <v>340540</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="7">
-        <v>380</v>
-      </c>
-      <c r="N14" s="7">
-        <v>238011</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,153 +1935,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>133796</v>
+        <v>192543</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>124577</v>
+        <v>181306</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N15" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>14544</v>
+        <v>56154</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>101</v>
+      </c>
+      <c r="I16" s="7">
+        <v>66268</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>185</v>
+      </c>
+      <c r="N16" s="7">
+        <v>122422</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18764</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="7">
-        <v>45</v>
-      </c>
-      <c r="N16" s="7">
-        <v>33308</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>247</v>
+        <v>808</v>
       </c>
       <c r="D17" s="7">
-        <v>166762</v>
+        <v>541864</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>228</v>
+        <v>838</v>
       </c>
       <c r="I17" s="7">
-        <v>173779</v>
+        <v>557746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>475</v>
+        <v>1646</v>
       </c>
       <c r="N17" s="7">
-        <v>340540</v>
+        <v>1099610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,217 +2090,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>892</v>
       </c>
       <c r="D18" s="7">
-        <v>181306</v>
+        <v>598018</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>252</v>
+        <v>939</v>
       </c>
       <c r="I18" s="7">
-        <v>192543</v>
+        <v>624014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>520</v>
+        <v>1831</v>
       </c>
       <c r="N18" s="7">
-        <v>373848</v>
+        <v>1222032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>101</v>
-      </c>
-      <c r="D19" s="7">
-        <v>66268</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>84</v>
-      </c>
-      <c r="I19" s="7">
-        <v>56154</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>185</v>
-      </c>
-      <c r="N19" s="7">
-        <v>122422</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>838</v>
-      </c>
-      <c r="D20" s="7">
-        <v>557746</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>808</v>
-      </c>
-      <c r="I20" s="7">
-        <v>541864</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1646</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1099610</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>939</v>
-      </c>
-      <c r="D21" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>892</v>
-      </c>
-      <c r="I21" s="7">
-        <v>598018</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1831</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1222032</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2508,8 +2157,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047AAF50-2B0B-44B3-9421-746467527AC8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC26E26-8E26-4F83-BACF-18AED2A6FA76}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2525,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2626,100 +2275,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>2137</v>
+        <v>17572</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>4684</v>
+        <v>18568</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>6821</v>
+        <v>36140</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>22317</v>
+        <v>112262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="I5" s="7">
-        <v>16819</v>
+        <v>127593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="N5" s="7">
-        <v>39136</v>
+        <v>239855</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,153 +2377,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="D6" s="7">
-        <v>24454</v>
+        <v>129834</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I6" s="7">
-        <v>21503</v>
+        <v>146161</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="N6" s="7">
-        <v>45957</v>
+        <v>275995</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>16431</v>
+        <v>22570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>12888</v>
+        <v>27152</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
-        <v>29319</v>
+        <v>49723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="D8" s="7">
-        <v>105276</v>
+        <v>167731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
+        <v>257</v>
+      </c>
+      <c r="I8" s="7">
+        <v>178043</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="7">
+        <v>517</v>
+      </c>
+      <c r="N8" s="7">
+        <v>345773</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" s="7">
-        <v>95443</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" s="7">
-        <v>281</v>
-      </c>
-      <c r="N8" s="7">
-        <v>200719</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,153 +2532,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="D9" s="7">
-        <v>121707</v>
+        <v>190301</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="I9" s="7">
-        <v>108331</v>
+        <v>205195</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>323</v>
+        <v>590</v>
       </c>
       <c r="N9" s="7">
-        <v>230038</v>
+        <v>395496</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>27152</v>
+        <v>16029</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>22570</v>
+        <v>14775</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>49723</v>
+        <v>30804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="D11" s="7">
-        <v>178043</v>
+        <v>126034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="I11" s="7">
-        <v>167731</v>
+        <v>140820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
-        <v>517</v>
+        <v>413</v>
       </c>
       <c r="N11" s="7">
-        <v>345773</v>
+        <v>266854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,153 +2687,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="D12" s="7">
-        <v>205195</v>
+        <v>142063</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>190301</v>
+        <v>155595</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>590</v>
+        <v>459</v>
       </c>
       <c r="N12" s="7">
-        <v>395496</v>
+        <v>297658</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>14775</v>
+        <v>28771</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>16029</v>
+        <v>27095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>30804</v>
+        <v>55866</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D14" s="7">
-        <v>140820</v>
+        <v>173507</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="I14" s="7">
-        <v>126034</v>
+        <v>176378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="N14" s="7">
-        <v>266854</v>
+        <v>349885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,153 +2842,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D15" s="7">
-        <v>155595</v>
+        <v>202278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="I15" s="7">
-        <v>142063</v>
+        <v>203473</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>459</v>
+        <v>541</v>
       </c>
       <c r="N15" s="7">
-        <v>297658</v>
+        <v>405751</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>27095</v>
+        <v>84942</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I16" s="7">
-        <v>28771</v>
+        <v>87591</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="N16" s="7">
-        <v>55866</v>
+        <v>172533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>237</v>
+        <v>836</v>
       </c>
       <c r="D17" s="7">
-        <v>176378</v>
+        <v>579534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
-        <v>227</v>
+        <v>884</v>
       </c>
       <c r="I17" s="7">
-        <v>173507</v>
+        <v>622834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
-        <v>464</v>
+        <v>1720</v>
       </c>
       <c r="N17" s="7">
-        <v>349885</v>
+        <v>1202368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,217 +2997,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>276</v>
+        <v>956</v>
       </c>
       <c r="D18" s="7">
-        <v>203473</v>
+        <v>664476</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>265</v>
+        <v>1009</v>
       </c>
       <c r="I18" s="7">
-        <v>202278</v>
+        <v>710425</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>541</v>
+        <v>1965</v>
       </c>
       <c r="N18" s="7">
-        <v>405751</v>
+        <v>1374901</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>125</v>
-      </c>
-      <c r="D19" s="7">
-        <v>87591</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>120</v>
-      </c>
-      <c r="I19" s="7">
-        <v>84942</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>245</v>
-      </c>
-      <c r="N19" s="7">
-        <v>172533</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>884</v>
-      </c>
-      <c r="D20" s="7">
-        <v>622833</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>836</v>
-      </c>
-      <c r="I20" s="7">
-        <v>579534</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1720</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1202367</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1009</v>
-      </c>
-      <c r="D21" s="7">
-        <v>710424</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>956</v>
-      </c>
-      <c r="I21" s="7">
-        <v>664476</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1965</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1374900</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3571,8 +3064,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E84326B-8F5E-4849-92D6-307EE6CA94FA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D256C99-4900-4F0D-B7CD-0F4F4CB266F9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3588,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3689,100 +3182,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>5589</v>
+        <v>13202</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>4193</v>
+        <v>19743</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>9781</v>
+        <v>32945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>19985</v>
+        <v>110267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="I5" s="7">
-        <v>16654</v>
+        <v>115596</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="N5" s="7">
-        <v>36640</v>
+        <v>225863</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,153 +3284,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>123469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="I6" s="7">
-        <v>20847</v>
+        <v>135339</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>350</v>
       </c>
       <c r="N6" s="7">
-        <v>46421</v>
+        <v>258808</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>14154</v>
+        <v>17609</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>9010</v>
+        <v>17787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>23164</v>
+        <v>35396</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="D8" s="7">
-        <v>95611</v>
+        <v>175709</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
-        <v>137</v>
+        <v>283</v>
       </c>
       <c r="I8" s="7">
-        <v>93612</v>
+        <v>190943</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>266</v>
+        <v>565</v>
       </c>
       <c r="N8" s="7">
-        <v>189223</v>
+        <v>366652</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,153 +3439,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>109765</v>
+        <v>193318</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="I9" s="7">
-        <v>102622</v>
+        <v>208730</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>298</v>
+        <v>620</v>
       </c>
       <c r="N9" s="7">
-        <v>212387</v>
+        <v>402048</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>17787</v>
+        <v>10210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>17609</v>
+        <v>12725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>35396</v>
+        <v>22935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>190943</v>
+        <v>125790</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="I11" s="7">
-        <v>175709</v>
+        <v>130548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
-        <v>565</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>366652</v>
+        <v>256338</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,153 +3594,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>208730</v>
+        <v>136000</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>193318</v>
+        <v>143273</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>620</v>
+        <v>441</v>
       </c>
       <c r="N12" s="7">
-        <v>402048</v>
+        <v>279273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>12725</v>
+        <v>20203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>10210</v>
+        <v>17958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>22935</v>
+        <v>38160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="D14" s="7">
-        <v>130548</v>
+        <v>168002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="I14" s="7">
-        <v>125790</v>
+        <v>164381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="N14" s="7">
-        <v>256338</v>
+        <v>332384</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,153 +3749,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>143273</v>
+        <v>188205</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>136000</v>
+        <v>182339</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="N15" s="7">
-        <v>279273</v>
+        <v>370544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>17958</v>
+        <v>61224</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I16" s="7">
-        <v>20203</v>
+        <v>68213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="N16" s="7">
-        <v>38160</v>
+        <v>129437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>230</v>
+        <v>871</v>
       </c>
       <c r="D17" s="7">
-        <v>164381</v>
+        <v>579769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
-        <v>227</v>
+        <v>859</v>
       </c>
       <c r="I17" s="7">
-        <v>168002</v>
+        <v>601468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
-        <v>457</v>
+        <v>1730</v>
       </c>
       <c r="N17" s="7">
-        <v>332384</v>
+        <v>1181236</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,217 +3904,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>256</v>
+        <v>966</v>
       </c>
       <c r="D18" s="7">
-        <v>182339</v>
+        <v>640993</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>256</v>
+        <v>957</v>
       </c>
       <c r="I18" s="7">
-        <v>188205</v>
+        <v>669681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>512</v>
+        <v>1923</v>
       </c>
       <c r="N18" s="7">
-        <v>370544</v>
+        <v>1310673</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>98</v>
-      </c>
-      <c r="D19" s="7">
-        <v>68213</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>95</v>
-      </c>
-      <c r="I19" s="7">
-        <v>61224</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M19" s="7">
-        <v>193</v>
-      </c>
-      <c r="N19" s="7">
-        <v>129437</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>859</v>
-      </c>
-      <c r="D20" s="7">
-        <v>601467</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>871</v>
-      </c>
-      <c r="I20" s="7">
-        <v>579768</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1730</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1181236</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>957</v>
-      </c>
-      <c r="D21" s="7">
-        <v>669680</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>966</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640992</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1923</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1310673</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
